--- a/study bug reporting, improvements results/outputs/bugs_CAMEL.xlsx
+++ b/study bug reporting, improvements results/outputs/bugs_CAMEL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t>feedback_critic</t>
   </si>
   <si>
+    <t>bug_browser_used_additional</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -68,7 +71,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>bug</t>
@@ -211,292 +214,316 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>6.0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>12.0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>14.0</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>15.0</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>16.0</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/study bug reporting, improvements results/outputs/bugs_CAMEL.xlsx
+++ b/study bug reporting, improvements results/outputs/bugs_CAMEL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -53,54 +53,66 @@
     <t>bug_browser_used_additional</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>CAMEL</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>bug</t>
-  </si>
-  <si>
-    <t>CAMEL</t>
-  </si>
-  <si>
-    <t>connection</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Safari</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
     <t>Windows 10</t>
   </si>
   <si>
@@ -113,6 +125,19 @@
     <t xml:space="preserve">If connected concepts are too close to one another the arrow head is flipping. This seems to be the case for the whole drawing window of CAMEL and is not related to the concept type (pos., neg., ..). </t>
   </si>
   <si>
+    <t>At https://camgalaxy.github.io/?ShowResearcherButtons=true&amp;fullScreen=false&amp;external=true it is not possible to upload a CAM file (of a single cam) even though the upload button is shown. 
+It is possible to open the dialog for selecting the file and after clicking on "open" the dialog closes again propperly. However, nothing happens.
+(I'm not sure whether uploading the respective CAM-file as a "screenshot" worked).</t>
+  </si>
+  <si>
+    <t>When drawing CAMs through the website (Dashboard -&gt; Enter Experiment -&gt; draw CAM) Nodes that have been deleted, are drawn. 
+I already checked: in the data the property isActive is correctly set to false. I couldn't find any obvious reason for this behavior in you code on Github, so I created this report.
+The 3 concepts in the screenshot that have names like Test_Del1 are, the deleted ones.
+I copied the CAM-data to the error code field.
+Liebe Grüße
+Michael</t>
+  </si>
+  <si>
     <t>Concepts can be moved so that they are partially outside the boarder of the drawing surface</t>
   </si>
   <si>
@@ -126,6 +151,1049 @@
   </si>
   <si>
     <t xml:space="preserve">When opening the link for maximal settings (https://camgalaxy.github.io/?cameraFeature=true&amp;fullScreen=true&amp;ShowResearcherButtons=true&amp;hideArrows=false&amp;hideAmbivalent=false&amp;showSliderAgreementOnly=false), the concepts move around the canvas by themselves, without me even clicking on them. The contents of the concepts do not change, but they jump in their location, both in the y and x axis. This is the case for both the first predefined concept, as well as for a second concept I added. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firefox Browser console log:
+11:44:12.190 Gewechselt zu https://camgalaxy.github.io/?ShowResearcherButtons=true&amp;fullScreen=false&amp;external=true
+11:44:12.298 GET
+https://camgalaxy.github.io/?ShowResearcherButtons=true&amp;fullScreen=false&amp;external=true
+[HTTP/2 200  17ms]
+11:44:12.694 GET
+https://camgalaxy.github.io/src/js/libraries/utf8.js
+[HTTP/2 200  0ms]
+11:44:12.715 GET
+https://camgalaxy.github.io/src/js/libraries/uuidmin.js
+[HTTP/2 200  0ms]
+11:44:12.719 GET
+https://camgalaxy.github.io/src/js/libraries/jquery.js
+[HTTP/2 200  0ms]
+11:44:12.722 GET
+https://camgalaxy.github.io/src/js/libraries/jqueryUI.js
+[HTTP/2 200  0ms]
+11:44:12.725 GET
+https://camgalaxy.github.io/src/js/libraries/toastrmin.js
+[HTTP/2 200  0ms]
+11:44:12.898 GET
+https://camgalaxy.github.io/src/js/libraries/cytoscapemin.js
+[HTTP/2 200  0ms]
+11:44:12.930 GET
+https://camgalaxy.github.io/src/js/libraries/base64.js
+[HTTP/2 200  0ms]
+11:44:12.945 GET
+https://camgalaxy.github.io/src/js/libraries/jatos.js
+[HTTP/2 200  0ms]
+11:44:12.961 GET
+https://camgalaxy.github.io/src/js/libraries/xlsxmin.js
+[HTTP/2 200  0ms]
+11:44:12.973 GET
+https://camgalaxy.github.io/config/configfile.js
+[HTTP/2 200  0ms]
+11:44:13.105 config config file: 
+Object { CAMproject: "projectName", ConNumNodes: 10, hideArrows: false, BidirectionalDefault: false, hideAmbivalent: true, showOnlyPosSlid: false, MaxLengthWords: 3, MaxLengthChars: 40, LengthSentence: 14, LengthWords: 8, … }
+configfile.js:40:9
+11:44:13.766 Source-Map-Fehler: request failed with status 404
+Ressourcen-Adresse: https://camgalaxy.github.io/src/js/libraries/toastrmin.js
+Source-Map-Adresse: toastr.js.map
+11:44:13.772 GET
+https://camgalaxy.github.io/src/js/processing/featureStudies(URLparams).js
+[HTTP/2 200  0ms]
+11:44:13.774 GET
+https://camgalaxy.github.io/jatos-publix/javascripts/jquery-3.5.1.min.js
+[HTTP/2 404  17ms]
+11:44:13.780 url params:  
+Object { ShowResearcherButtons: "true", fullScreen: "false", external: "true" }
+featureStudies(URLparams).js:63:9
+11:44:13.781 config URL params:  
+Object { CAMproject: "projectName", ConNumNodes: 10, hideArrows: false, BidirectionalDefault: false, hideAmbivalent: true, showOnlyPosSlid: false, MaxLengthWords: 3, MaxLengthChars: 40, LengthSentence: 14, LengthWords: 8, … }
+featureStudies(URLparams).js:172:9
+11:44:13.791 GET
+https://camgalaxy.github.io/img/favicon_logoCAM2.PNG
+[HTTP/2 200  0ms]
+11:44:13.810 Laden fehlgeschlagen für das &lt;script&gt; mit der Quelle "https://camgalaxy.github.io/jatos-publix/javascripts/jquery-3.5.1.min.js". camgalaxy.github.io:1:1
+11:44:13.836 GET
+https://camgalaxy.github.io/src/js/backend/initialisationConfig.js
+[HTTP/2 200  0ms]
+11:44:13.841 !!! All scripts loaded 1 camgalaxy.github.io:85:17
+11:44:15.356 GET
+https://camgalaxy.github.io/config/languageFile.js
+[HTTP/2 200  0ms]
+11:44:15.363
+Object { ls_01: "Please do not change or minimize the browser window while the study is running. Only if there is a break in the course of the study. ", global_closeButton: "Close", qr_start: "Please click on the navigation bar if you need help how to draw a Cognitive Affective Map, else you can just close this window.", qr_top: "Quick reference", qr_legend_10: "Every concept is given a basic emotional value:", qr_legend_11: "Positive concept", qr_legend_12: "Negative concept", qr_legend_13: "Ambivalent concept", qr_legend_14: "Neutral concept", qr_legend_20: "Draw links between concepts that are related to each other:", … }
+languageFile.js:1289:9
+11:44:15.376 GET
+https://camgalaxy.github.io/src/js/frontend/paradata_focus.js
+[HTTP/2 200  0ms]
+11:44:15.381 starting paradata paradata_focus.js:1:9
+11:44:15.381 config.fullScreen - paradata false paradata_focus.js:2:9
+11:44:15.397 GET
+https://camgalaxy.github.io/src/js/frontend/paradata_focus_text.js
+[HTTP/2 200  0ms]
+11:44:15.409 GET
+https://camgalaxy.github.io/src/js/processing/preprocessingCAM.js
+[HTTP/2 200  0ms]
+11:44:15.413 Preprocessing step preprocessingCAM.js:6:9
+11:44:15.430 GET
+https://camgalaxy.github.io/src/js/processing/postprocessingCAM.js
+[HTTP/2 200  0ms]
+11:44:15.460 GET
+https://camgalaxy.github.io/src/js/backend/Elements.js
+[HTTP/2 200  0ms]
+11:44:15.476 GET
+https://camgalaxy.github.io/src/js/backend/nodeCAM.js
+[HTTP/2 200  0ms]
+11:44:15.490 GET
+https://camgalaxy.github.io/src/js/backend/connectorCAM.js
+[HTTP/2 200  0ms]
+11:44:15.532 GET
+https://camgalaxy.github.io/src/js/backend/variables.js
+[HTTP/2 200  0ms]
+11:44:15.570 GET
+https://camgalaxy.github.io/src/js/frontend/colours.js
+[HTTP/2 200  0ms]
+11:44:15.600 GET
+https://camgalaxy.github.io/src/js/frontend/eventListeners_backend.js
+[HTTP/2 200  0ms]
+11:44:15.701 GET
+https://camgalaxy.github.io/src/js/frontend/connectorArrows.js
+[HTTP/2 200  0ms]
+11:44:15.921 GET
+https://camgalaxy.github.io/src/js/frontend/draw.js
+[HTTP/2 200  0ms]
+11:44:15.943 GET
+https://camgalaxy.github.io/src/js/frontend/dialogs/interactionNode.js
+[HTTP/2 200  0ms]
+11:44:15.989 GET
+https://camgalaxy.github.io/src/js/frontend/dialogs/interactionEdge.js
+[HTTP/2 200  0ms]
+11:44:16.025 GET
+https://camgalaxy.github.io/src/js/frontend/dialogs/confirmSave.js
+[HTTP/2 200  0ms]
+11:44:16.113 GET
+https://camgalaxy.github.io/src/js/frontend/dialogs/setReminder.js
+[HTTP/2 200  0ms]
+11:44:16.167 GET
+https://camgalaxy.github.io/src/js/frontend/buttons/participant/reference.js
+[HTTP/2 200  0ms]
+11:44:16.265 GET
+https://camgalaxy.github.io/src/js/frontend/buttons/participant/saveButton.js
+[HTTP/2 200  0ms]
+11:44:16.345 GET
+https://camgalaxy.github.io/src/js/frontend/buttons/participant/downloadSVGButton.js
+[HTTP/2 200  0ms]
+11:44:16.444 GET
+https://camgalaxy.github.io/src/js/frontend/buttons/participant/deleteButton.js
+[HTTP/2 200  0ms]
+11:44:16.522 GET
+https://camgalaxy.github.io/src/js/frontend/eventListeners_frontend.js
+[HTTP/2 200  0ms]
+11:44:16.575 GET
+https://camgalaxy.github.io/config/defaultCAM.js
+[HTTP/2 200  0ms]
+11:44:16.766 GET
+https://camgalaxy.github.io/src/js/backend/initialisation.js
+[HTTP/2 200  0ms]
+11:44:16.780 default CAM drawn - MongoDB is not used initialisation.js:53:13
+11:44:16.781 Node has been added. Elements.js:143:17
+11:44:16.856 GET
+https://camgalaxy.github.io/src/js/frontend/buttons/researcher/downloadJSONbutton.js
+[HTTP/2 200  0ms]
+11:44:16.883 GET
+https://camgalaxy.github.io/src/js/frontend/buttons/researcher/uploadJSONbutton.js
+[HTTP/2 200  0ms]
+11:44:16.914 GET
+https://camgalaxy.github.io/src/js/frontend/buttons/researcher/createConfigSave.js
+[HTTP/2 200  0ms]
+11:44:18.862 !!! All scripts loaded 2 camgalaxy.github.io:117:17
+</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "idCAM": "84258ed9-f758-49c5-8309-b0ff567f3ae5",
+    "creator": "",
+    "defocusCAM": [
+      1
+    ],
+    "date": 1721296973261,
+    "nodes": [
+      {
+        "id": "fc5321ab-d228-4fc0-a6ce-a12021a599ab",
+        "value": 0,
+        "text": "Central Concept",
+        "comment": "",
+        "position": {
+          "x": 650,
+          "y": 400
+        },
+        "isActive": true,
+        "date": 1721296978349,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": false,
+        "isDeletable": false,
+        "hasElementMoved": false,
+        "eventLog": [],
+        "isTextChangeable": false
+      },
+      {
+        "id": "8f785a76-b17b-47eb-add7-76e0977703eb",
+        "value": 0,
+        "text": "Test_1",
+        "comment": "",
+        "position": {
+          "x": 618.3999938964844,
+          "y": 187.60000610351562
+        },
+        "isActive": true,
+        "date": 1721296980145,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721296980145,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721296980293,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721296985533,
+            "type": "text",
+            "value": "Test_1"
+          },
+          {
+            "time": 1721296985533,
+            "type": "selected",
+            "value": false
+          },
+          {
+            "time": "2024-07-18T10:03:06.241Z",
+            "type": "position",
+            "value": {
+              "x": 745.3999938964844,
+              "y": 346.6000061035156
+            }
+          },
+          {
+            "time": "2024-07-18T10:03:06.476Z",
+            "type": "position",
+            "value": {
+              "x": 636.3999938964844,
+              "y": 194.60000610351562
+            }
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "913ca945-22de-47be-86d6-0c2d054c597e",
+        "value": 0,
+        "text": "Test2",
+        "comment": "",
+        "position": {
+          "x": 737.3999938964844,
+          "y": 113.60000610351562
+        },
+        "isActive": true,
+        "date": 1721296987221,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721296987221,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721296987329,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721296990998,
+            "type": "text",
+            "value": "Test2"
+          },
+          {
+            "time": 1721296990998,
+            "type": "selected",
+            "value": false
+          },
+          {
+            "time": "2024-07-18T10:04:02.341Z",
+            "type": "position",
+            "value": {
+              "x": 707.3999938964844,
+              "y": 186.60000610351562
+            }
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "e8afa306-d919-4d77-b109-0daaff044674",
+        "value": 0,
+        "text": "Test3",
+        "comment": "",
+        "position": {
+          "x": 825.3999938964844,
+          "y": 225.60000610351562
+        },
+        "isActive": true,
+        "date": 1721296991469,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721296991469,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721296991540,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721296994666,
+            "type": "text",
+            "value": "Test3"
+          },
+          {
+            "time": 1721296994666,
+            "type": "selected",
+            "value": false
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "a4d5d080-693e-448e-a1cf-b258f18ac696",
+        "value": 0,
+        "text": "Test4",
+        "comment": "",
+        "position": {
+          "x": 430.3999938964844,
+          "y": 285.6000061035156
+        },
+        "isActive": true,
+        "date": 1721296994831,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721296994831,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721296995392,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297000807,
+            "type": "text",
+            "value": "Test4"
+          },
+          {
+            "time": 1721297000807,
+            "type": "selected",
+            "value": false
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "64673ffc-daee-4ea0-adb9-d8fe8df11eca",
+        "value": 0,
+        "text": "Test5",
+        "comment": "",
+        "position": {
+          "x": 248.39999389648438,
+          "y": 483.6000061035156
+        },
+        "isActive": true,
+        "date": 1721297000919,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297000919,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297001468,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297005475,
+            "type": "text",
+            "value": "Test5"
+          },
+          {
+            "time": 1721297005475,
+            "type": "selected",
+            "value": false
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "3f4cbbaf-4a51-4a84-b9ab-481a6050bb39",
+        "value": 0,
+        "text": "Test6",
+        "comment": "",
+        "position": {
+          "x": 760.3999938964844,
+          "y": 523.6000061035156
+        },
+        "isActive": true,
+        "date": 1721297005572,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297005572,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297006182,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297010159,
+            "type": "text",
+            "value": "Test6"
+          },
+          {
+            "time": 1721297010159,
+            "type": "selected",
+            "value": false
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "12844d29-bf94-439a-850c-fba0d6b191b0",
+        "value": 0,
+        "text": "Test7",
+        "comment": "",
+        "position": {
+          "x": 1055.3999938964844,
+          "y": 584.6000061035156
+        },
+        "isActive": true,
+        "date": 1721297010545,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297010545,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297011295,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297014499,
+            "type": "text",
+            "value": "Test7"
+          },
+          {
+            "time": 1721297014499,
+            "type": "selected",
+            "value": false
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "944c1b7d-70c7-4f84-943f-32441a77be61",
+        "value": 0,
+        "text": "Test8",
+        "comment": "",
+        "position": {
+          "x": 1118.3999938964844,
+          "y": 402.6000061035156
+        },
+        "isActive": true,
+        "date": 1721297014871,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297014871,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297014982,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297020083,
+            "type": "text",
+            "value": "Test8"
+          },
+          {
+            "time": 1721297020083,
+            "type": "selected",
+            "value": false
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "bd5492a8-81cb-4060-a467-65706436ea6a",
+        "value": 0,
+        "text": "Test9",
+        "comment": "",
+        "position": {
+          "x": 1108.3999938964844,
+          "y": 245.60000610351562
+        },
+        "isActive": true,
+        "date": 1721297020691,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297020691,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297020794,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297024696,
+            "type": "text",
+            "value": "Test9"
+          },
+          {
+            "time": 1721297024696,
+            "type": "selected",
+            "value": false
+          },
+          {
+            "time": "2024-07-18T10:04:00.032Z",
+            "type": "position",
+            "value": {
+              "x": 1109.3999938964844,
+              "y": 246.60000610351562
+            }
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "73870017-e500-46fe-b8d3-a18cae9bb1f5",
+        "value": 0,
+        "text": "Test10",
+        "comment": "",
+        "position": {
+          "x": 568.3999938964844,
+          "y": 587.6000061035156
+        },
+        "isActive": true,
+        "date": 1721297024800,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297024800,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297025472,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297029015,
+            "type": "text",
+            "value": "Test10"
+          },
+          {
+            "time": 1721297029015,
+            "type": "selected",
+            "value": false
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "b9656975-ba78-493a-8128-b9ebc93b6920",
+        "value": 0,
+        "text": "Test_Del1",
+        "comment": "",
+        "position": {
+          "x": 274.3999938964844,
+          "y": 169.60000610351562
+        },
+        "isActive": false,
+        "date": 1721297053421,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297053421,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297054525,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297062088,
+            "type": "text",
+            "value": "Test_Del1"
+          },
+          {
+            "time": 1721297062088,
+            "type": "selected",
+            "value": false
+          },
+          {
+            "time": 1721297081496,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297082834,
+            "type": "node was deleted",
+            "value": -99
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "90eaf2b9-5d5a-4f50-9a21-3b14131a842f",
+        "value": 0,
+        "text": "Test_Del2",
+        "comment": "",
+        "position": {
+          "x": 425.3999938964844,
+          "y": 77.60000610351562
+        },
+        "isActive": false,
+        "date": 1721297062435,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297062435,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297063169,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297068686,
+            "type": "text",
+            "value": "Test_Del2"
+          },
+          {
+            "time": 1721297068686,
+            "type": "selected",
+            "value": false
+          },
+          {
+            "time": 1721297079254,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297080363,
+            "type": "node was deleted",
+            "value": -99
+          }
+        ],
+        "isTextChangeable": 1
+      },
+      {
+        "id": "78b780b0-7d0a-4b26-bfb6-31b4ffd0402d",
+        "value": 0,
+        "text": "Test_Del3",
+        "comment": "",
+        "position": {
+          "x": 178.39999389648438,
+          "y": 94.60000610351562
+        },
+        "isActive": false,
+        "date": 1721297069263,
+        "kind": "Node",
+        "isSelected": false,
+        "isConnectorSelected": false,
+        "isDraggable": 1,
+        "isDeletable": 1,
+        "hasElementMoved": false,
+        "eventLog": [
+          {
+            "time": 1721297069263,
+            "type": "create node",
+            "value": 0
+          },
+          {
+            "time": 1721297069916,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297074871,
+            "type": "text",
+            "value": "Test_Del3"
+          },
+          {
+            "time": 1721297074871,
+            "type": "selected",
+            "value": false
+          },
+          {
+            "time": 1721297076069,
+            "type": "selected",
+            "value": true
+          },
+          {
+            "time": 1721297077237,
+            "type": "node was deleted",
+            "value": -99
+          }
+        ],
+        "isTextChangeable": 1
+      }
+    ],
+    "connectors": [
+      {
+        "id": "21bbc31c-761e-40f0-9fca-b46256f951c2",
+        "value": null,
+        "source": "73870017-e500-46fe-b8d3-a18cae9bb1f5",
+        "target": "fc5321ab-d228-4fc0-a6ce-a12021a599ab",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297031244,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297031244,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "2d0f5103-17b2-44b6-932b-41d948d95435",
+        "value": null,
+        "source": "3f4cbbaf-4a51-4a84-b9ab-481a6050bb39",
+        "target": "fc5321ab-d228-4fc0-a6ce-a12021a599ab",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297032953,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297032953,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "690cf6c9-69a1-4233-92a1-746cc3e230fd",
+        "value": null,
+        "source": "12844d29-bf94-439a-850c-fba0d6b191b0",
+        "target": "fc5321ab-d228-4fc0-a6ce-a12021a599ab",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297036517,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297036517,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "aa3266c1-4ad8-430b-a492-7e03955a00ae",
+        "value": null,
+        "source": "944c1b7d-70c7-4f84-943f-32441a77be61",
+        "target": "fc5321ab-d228-4fc0-a6ce-a12021a599ab",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297038043,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297038043,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "b0593cf6-541a-44cc-be39-ff23fefdb865",
+        "value": null,
+        "source": "e8afa306-d919-4d77-b109-0daaff044674",
+        "target": "944c1b7d-70c7-4f84-943f-32441a77be61",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297039558,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297039558,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "d568d3a6-df55-4ac3-b3e7-a2ac3d57d1d0",
+        "value": null,
+        "source": "bd5492a8-81cb-4060-a467-65706436ea6a",
+        "target": "944c1b7d-70c7-4f84-943f-32441a77be61",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297041705,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297041705,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "e01e6303-90b5-4a87-be79-05ace5385341",
+        "value": null,
+        "source": "8f785a76-b17b-47eb-add7-76e0977703eb",
+        "target": "913ca945-22de-47be-86d6-0c2d054c597e",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297044023,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297044023,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "2ec70d53-b425-4626-b53f-a8293562b690",
+        "value": null,
+        "source": "e8afa306-d919-4d77-b109-0daaff044674",
+        "target": "913ca945-22de-47be-86d6-0c2d054c597e",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297045597,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297045597,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "c7501171-53d3-4de7-9edb-de7e0a1ddc0f",
+        "value": null,
+        "source": "8f785a76-b17b-47eb-add7-76e0977703eb",
+        "target": "fc5321ab-d228-4fc0-a6ce-a12021a599ab",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297046942,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297046942,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "74aa7798-1852-4898-9e71-a1e004455fa9",
+        "value": null,
+        "source": "a4d5d080-693e-448e-a1cf-b258f18ac696",
+        "target": "8f785a76-b17b-47eb-add7-76e0977703eb",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297050976,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297050976,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      },
+      {
+        "id": "68849ca9-cdcf-47a3-89b9-2bbfec5940db",
+        "value": null,
+        "source": "64673ffc-daee-4ea0-adb9-d8fe8df11eca",
+        "target": "fc5321ab-d228-4fc0-a6ce-a12021a599ab",
+        "agreement": true,
+        "isActive": true,
+        "date": 1721297052501,
+        "kind": "Connector",
+        "isSelected": false,
+        "intensity": 3,
+        "isDeletable": true,
+        "isOver": false,
+        "isBidirectional": true,
+        "eventLog": [
+          {
+            "time": 1721297052501,
+            "type": "create connection",
+            "value": null
+          }
+        ]
+      }
+    ],
+    "currentID": null,
+    "currentNode": null,
+    "hasSelectedNode": false,
+    "currentConnector": null,
+    "hasSelectedConnector": false,
+    "readyToMove": false,
+    "isIncoming": false,
+    "hasElementMoved": false
+  }
+]</t>
+  </si>
+  <si>
+    <t>Liebe Grüße,
+Michael 
+:-)</t>
+  </si>
+  <si>
+    <t>Edge \ Firefox</t>
   </si>
 </sst>
 </file>
@@ -223,43 +1291,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -267,43 +1335,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -311,43 +1379,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -355,43 +1423,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -399,43 +1467,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -443,43 +1511,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -487,43 +1555,131 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
